--- a/Praktikum/222 - Heißluftmotor/Mappe1.xlsx
+++ b/Praktikum/222 - Heißluftmotor/Mappe1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5736" xr2:uid="{343DAB7B-4D77-45BA-A9E5-AA4FEEDF65BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Nr</t>
   </si>
@@ -50,22 +50,41 @@
     <t>Fläche [hPacm^3]</t>
   </si>
   <si>
-    <t>Δ Frequenz [RPM]</t>
-  </si>
-  <si>
     <t>Mittelwert</t>
   </si>
   <si>
     <t>Standartabweichung</t>
   </si>
   <si>
-    <t>Daten aus Tab 1</t>
+    <t>Δ Frq. [RPM]</t>
+  </si>
+  <si>
+    <t>Daten aus Tab 4</t>
+  </si>
+  <si>
+    <t>Daten aus Tab. 5</t>
+  </si>
+  <si>
+    <t>Daten aus Tab. 6</t>
+  </si>
+  <si>
+    <t>Daten aus Tab. 7</t>
+  </si>
+  <si>
+    <t>Daten aus Tab. 8</t>
+  </si>
+  <si>
+    <t>Tabelle 10: Wärmekraftmaschine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,15 +94,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -91,12 +116,192 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -410,390 +615,937 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783129DB-5615-4A27-93EF-BE33095AD754}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" activeCellId="1" sqref="H14 H13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>12.39</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="D2" s="13">
+        <v>218.3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F2" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G2" s="13">
+        <v>374.7</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="19">
+        <v>23697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>12.42</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="D3" s="13">
+        <v>217.2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>375.3</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>23499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>12.44</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="D4" s="13">
+        <v>219</v>
+      </c>
+      <c r="E4" s="7">
+        <v>24.9</v>
+      </c>
+      <c r="F4" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G4" s="13">
+        <v>373.7</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="19">
+        <v>23157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>12.45</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.72</v>
+      </c>
+      <c r="D5" s="13">
+        <v>218.8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>374.6</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>23517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12.39</v>
-      </c>
-      <c r="C2">
-        <v>2.7</v>
-      </c>
-      <c r="D2">
-        <v>218.3</v>
-      </c>
-      <c r="E2">
-        <v>24.7</v>
-      </c>
-      <c r="F2">
-        <v>17.5</v>
-      </c>
-      <c r="G2">
-        <v>374.7</v>
-      </c>
-      <c r="H2">
-        <v>0.3</v>
-      </c>
-      <c r="I2">
-        <v>23697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12.42</v>
-      </c>
-      <c r="C3">
-        <v>2.72</v>
-      </c>
-      <c r="D3">
-        <v>217.2</v>
-      </c>
-      <c r="E3">
-        <v>24.8</v>
-      </c>
-      <c r="F3">
-        <v>17.2</v>
-      </c>
-      <c r="G3">
-        <v>375.3</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
-        <v>23499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>12.44</v>
-      </c>
-      <c r="C4">
-        <v>2.72</v>
-      </c>
-      <c r="D4">
-        <v>219</v>
-      </c>
-      <c r="E4">
-        <v>24.9</v>
-      </c>
-      <c r="F4">
-        <v>17.5</v>
-      </c>
-      <c r="G4">
-        <v>373.7</v>
-      </c>
-      <c r="H4">
-        <v>0.3</v>
-      </c>
-      <c r="I4">
-        <v>23157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>12.45</v>
-      </c>
-      <c r="C5">
-        <v>2.72</v>
-      </c>
-      <c r="D5">
-        <v>218.8</v>
-      </c>
-      <c r="E5">
-        <v>24.8</v>
-      </c>
-      <c r="F5">
-        <v>17.5</v>
-      </c>
-      <c r="G5">
-        <v>374.6</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5">
-        <v>23517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <f>AVERAGE(B2:B5)</f>
         <v>12.425000000000001</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:H6" si="0">AVERAGE(C2:C5)</f>
+      <c r="C6" s="10">
+        <f t="shared" ref="C6:G6" si="0">AVERAGE(C2:C5)</f>
         <v>2.7150000000000003</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>218.32499999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>24.8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>17.425000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>374.57500000000005</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="7"/>
+      <c r="I6" s="19">
         <f>AVERAGE(I2:I5)</f>
         <v>23467.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
         <f>_xlfn.STDEV.S(B2:B5)</f>
         <v>2.6457513110645342E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <f t="shared" ref="C7:I7" si="1">_xlfn.STDEV.S(C2:C5)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="13">
         <f t="shared" si="1"/>
         <v>0.80570879768479542</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>8.1649658092772318E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>0.15000000000000036</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>0.66017674401128734</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="7"/>
+      <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>225.47948908936263</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>12.75</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>2.74</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="13">
         <v>217.6</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>23.7</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>17.5</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="16">
         <v>251.4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>0.3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="19">
         <v>31046</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>12.44</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>2.74</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="13">
         <v>218.6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>23.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>17.5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="16">
         <v>262</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>0.1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="19">
         <v>31293</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>12.45</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>2.74</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>220</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>23.6</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>17.5</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="16">
         <v>256.3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>0.2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="19">
         <v>31520</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7">
         <f>AVERAGE(B10:B12)</f>
         <v>12.546666666666667</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <f t="shared" ref="C13:I13" si="2">AVERAGE(C10:C12)</f>
         <v>2.74</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="13">
         <f t="shared" si="2"/>
         <v>218.73333333333335</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <f t="shared" si="2"/>
         <v>23.600000000000005</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="16">
         <f t="shared" si="2"/>
         <v>256.56666666666666</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="7"/>
+      <c r="I13" s="19">
         <f t="shared" si="2"/>
         <v>31286.333333333332</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7">
         <f>_xlfn.STDEV.S(B10:B12)</f>
         <v>0.17616280348965116</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <f t="shared" ref="C14:I14" si="3">_xlfn.STDEV.S(C10:C12)</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="13">
         <f t="shared" si="3"/>
         <v>1.2055427546683446</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="16">
         <f t="shared" si="3"/>
         <v>5.3050290605550217</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="7"/>
+      <c r="I14" s="19">
         <f t="shared" si="3"/>
         <v>237.07031305782115</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12.46</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D16" s="13">
+        <v>217</v>
+      </c>
+      <c r="E16" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="G16" s="13">
+        <v>285.3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>29746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10">
+        <v>12.44</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D17" s="13">
+        <v>219.1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>287.3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="19">
+        <v>29482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10">
+        <v>12.43</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D18" s="13">
+        <v>218.3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="19">
+        <v>29364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10">
+        <f>AVERAGE(B15:B18)</f>
+        <v>12.443333333333333</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:G19" si="4">AVERAGE(C15:C18)</f>
+        <v>2.74</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="4"/>
+        <v>218.13333333333335</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="4"/>
+        <v>24.100000000000005</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="4"/>
+        <v>21.900000000000002</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="4"/>
+        <v>287.23333333333335</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="19">
+        <f>AVERAGE(I15:I18)</f>
+        <v>29530.666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10">
+        <f>_xlfn.STDEV.S(B15:B18)</f>
+        <v>1.527525231652011E-2</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:G20" si="5">_xlfn.STDEV.S(C15:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0598742063723081</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="5"/>
+        <v>4.3511678576336583E-15</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="5"/>
+        <v>3.8105117766515275</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="5"/>
+        <v>1.9008769905844394</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="19">
+        <f t="shared" ref="I20" si="6">_xlfn.STDEV.S(I15:I18)</f>
+        <v>195.59481929062775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
+        <v>12.46</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D22" s="13">
+        <v>216.5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G22" s="16">
+        <v>319.7</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>27201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10">
+        <v>12.46</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D23" s="13">
+        <v>217.6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G23" s="16">
+        <v>317.8</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="19">
+        <v>27303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="10">
+        <v>12.47</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D24" s="13">
+        <v>217.6</v>
+      </c>
+      <c r="E24" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="F24" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G24" s="16">
+        <v>324.7</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I24" s="19">
+        <v>26936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="10">
+        <f>AVERAGE(B21:B24)</f>
+        <v>12.463333333333333</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25:G25" si="7">AVERAGE(C21:C24)</f>
+        <v>2.74</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="7"/>
+        <v>217.23333333333335</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="7"/>
+        <v>24.399999999999995</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>17.5</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="7"/>
+        <v>320.73333333333335</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="19">
+        <f>AVERAGE(I21:I24)</f>
+        <v>27146.666666666668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10">
+        <f>_xlfn.STDEV.S(B21:B24)</f>
+        <v>5.7735026918961348E-3</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:G26" si="8">_xlfn.STDEV.S(C21:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="8"/>
+        <v>0.63508529610858511</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="8"/>
+        <v>4.3511678576336583E-15</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="8"/>
+        <v>3.5641735835019688</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="19">
+        <f t="shared" ref="I26" si="9">_xlfn.STDEV.S(I21:I24)</f>
+        <v>189.43688482799047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10">
+        <v>12.48</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D28" s="13">
+        <v>220.3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="F28" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G28" s="16">
+        <v>351</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I28" s="19">
+        <v>24851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10">
+        <v>12.47</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D29" s="13">
+        <v>219.3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="F29" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G29" s="16">
+        <v>355.4</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I29" s="19">
+        <v>24879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10">
+        <v>12.46</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D30" s="13">
+        <v>219.2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="F30" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="G30" s="16">
+        <v>347.6</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="19">
+        <v>25530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="10">
+        <f>AVERAGE(B27:B30)</f>
+        <v>12.47</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" ref="C31:G31" si="10">AVERAGE(C27:C30)</f>
+        <v>2.74</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="10"/>
+        <v>219.6</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="10"/>
+        <v>24.8</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="10"/>
+        <v>17.5</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="10"/>
+        <v>351.33333333333331</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="19">
+        <f>AVERAGE(I27:I30)</f>
+        <v>25086.666666666668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="12">
+        <f>_xlfn.STDEV.S(B27:B30)</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:G32" si="11">_xlfn.STDEV.S(C27:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="11"/>
+        <v>0.60827625302982946</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" si="11"/>
+        <v>3.910669166949968</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="21">
+        <f t="shared" ref="I32" si="12">_xlfn.STDEV.S(I27:I30)</f>
+        <v>384.19309381264691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="22"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>